--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H2">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I2">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J2">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N2">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O2">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P2">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q2">
-        <v>425.237787542048</v>
+        <v>455.2217529845287</v>
       </c>
       <c r="R2">
-        <v>3827.140087878432</v>
+        <v>4096.995776860758</v>
       </c>
       <c r="S2">
-        <v>0.06033774442996868</v>
+        <v>0.09645803189514886</v>
       </c>
       <c r="T2">
-        <v>0.06033774442996868</v>
+        <v>0.09645803189514887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H3">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I3">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J3">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.630572</v>
       </c>
       <c r="O3">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P3">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q3">
-        <v>818.8038864611281</v>
+        <v>924.965047567112</v>
       </c>
       <c r="R3">
-        <v>7369.234978150152</v>
+        <v>8324.685428104009</v>
       </c>
       <c r="S3">
-        <v>0.116181536747064</v>
+        <v>0.1959930681589345</v>
       </c>
       <c r="T3">
-        <v>0.116181536747064</v>
+        <v>0.1959930681589345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H4">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I4">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J4">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N4">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O4">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P4">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q4">
-        <v>1758.915956918492</v>
+        <v>636.6677236330941</v>
       </c>
       <c r="R4">
-        <v>15830.24361226643</v>
+        <v>5730.009512697847</v>
       </c>
       <c r="S4">
-        <v>0.2495757070315573</v>
+        <v>0.1349050549324254</v>
       </c>
       <c r="T4">
-        <v>0.2495757070315573</v>
+        <v>0.1349050549324254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H5">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I5">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J5">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N5">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O5">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P5">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q5">
-        <v>739.512016737236</v>
+        <v>563.5438079737349</v>
       </c>
       <c r="R5">
-        <v>6655.608150635123</v>
+        <v>5071.894271763614</v>
       </c>
       <c r="S5">
-        <v>0.1049306726166003</v>
+        <v>0.119410652604933</v>
       </c>
       <c r="T5">
-        <v>0.1049306726166003</v>
+        <v>0.119410652604933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H6">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I6">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J6">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N6">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O6">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P6">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q6">
-        <v>1283.065404273686</v>
+        <v>870.3202407861296</v>
       </c>
       <c r="R6">
-        <v>11547.58863846317</v>
+        <v>7832.882167075167</v>
       </c>
       <c r="S6">
-        <v>0.1820564275284332</v>
+        <v>0.184414248647725</v>
       </c>
       <c r="T6">
-        <v>0.1820564275284332</v>
+        <v>0.184414248647725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.609574</v>
       </c>
       <c r="I7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N7">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O7">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P7">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q7">
-        <v>110.5741820561387</v>
+        <v>104.785083980342</v>
       </c>
       <c r="R7">
-        <v>995.167638505248</v>
+        <v>943.065755823078</v>
       </c>
       <c r="S7">
-        <v>0.01568956695034166</v>
+        <v>0.02220316341748984</v>
       </c>
       <c r="T7">
-        <v>0.01568956695034166</v>
+        <v>0.02220316341748984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.609574</v>
       </c>
       <c r="I8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.630572</v>
       </c>
       <c r="O8">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P8">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q8">
         <v>212.912804699592</v>
@@ -948,10 +948,10 @@
         <v>1916.215242296328</v>
       </c>
       <c r="S8">
-        <v>0.03021057575830212</v>
+        <v>0.04511460617150435</v>
       </c>
       <c r="T8">
-        <v>0.03021057575830211</v>
+        <v>0.04511460617150436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.609574</v>
       </c>
       <c r="I9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N9">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O9">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P9">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q9">
-        <v>457.3692624212547</v>
+        <v>146.551170832854</v>
       </c>
       <c r="R9">
-        <v>4116.323361791292</v>
+        <v>1318.960537495686</v>
       </c>
       <c r="S9">
-        <v>0.06489693643081558</v>
+        <v>0.03105307999406451</v>
       </c>
       <c r="T9">
-        <v>0.06489693643081557</v>
+        <v>0.03105307999406452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.609574</v>
       </c>
       <c r="I10">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J10">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N10">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O10">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P10">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q10">
-        <v>192.2946143710707</v>
+        <v>129.7191640293527</v>
       </c>
       <c r="R10">
-        <v>1730.651529339636</v>
+        <v>1167.472476264174</v>
       </c>
       <c r="S10">
-        <v>0.02728502413730992</v>
+        <v>0.02748650559715366</v>
       </c>
       <c r="T10">
-        <v>0.02728502413730992</v>
+        <v>0.02748650559715366</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.609574</v>
       </c>
       <c r="I11">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J11">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N11">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O11">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P11">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q11">
-        <v>333.6342906451207</v>
+        <v>200.3344060837653</v>
       </c>
       <c r="R11">
-        <v>3002.708615806086</v>
+        <v>1803.009654753888</v>
       </c>
       <c r="S11">
-        <v>0.04733996166798474</v>
+        <v>0.04244933904197739</v>
       </c>
       <c r="T11">
-        <v>0.04733996166798472</v>
+        <v>0.0424493390419774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H12">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I12">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J12">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N12">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O12">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P12">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q12">
-        <v>0.7796124308266666</v>
+        <v>5.654364305789334</v>
       </c>
       <c r="R12">
-        <v>7.01651187744</v>
+        <v>50.88927875210399</v>
       </c>
       <c r="S12">
-        <v>0.0001106205915460763</v>
+        <v>0.001198116849598695</v>
       </c>
       <c r="T12">
-        <v>0.0001106205915460763</v>
+        <v>0.001198116849598695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H13">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I13">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J13">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.630572</v>
       </c>
       <c r="O13">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P13">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q13">
-        <v>1.50115936776</v>
+        <v>11.489102431456</v>
       </c>
       <c r="R13">
-        <v>13.51043430984</v>
+        <v>103.401921883104</v>
       </c>
       <c r="S13">
-        <v>0.0002130021671030352</v>
+        <v>0.002434453541629588</v>
       </c>
       <c r="T13">
-        <v>0.0002130021671030352</v>
+        <v>0.002434453541629588</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H14">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I14">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J14">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N14">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O14">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P14">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q14">
-        <v>3.224719874306667</v>
+        <v>7.908126594472</v>
       </c>
       <c r="R14">
-        <v>29.02247886876</v>
+        <v>71.17313935024799</v>
       </c>
       <c r="S14">
-        <v>0.0004575612265288557</v>
+        <v>0.001675671960488189</v>
       </c>
       <c r="T14">
-        <v>0.0004575612265288556</v>
+        <v>0.001675671960488189</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H15">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I15">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J15">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N15">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O15">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P15">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q15">
-        <v>1.355789108786667</v>
+        <v>6.999845617359111</v>
       </c>
       <c r="R15">
-        <v>12.20210197908</v>
+        <v>62.99861055623199</v>
       </c>
       <c r="S15">
-        <v>0.0001923753230392676</v>
+        <v>0.001483214120137379</v>
       </c>
       <c r="T15">
-        <v>0.0001923753230392676</v>
+        <v>0.001483214120137379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H16">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I16">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J16">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N16">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O16">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P16">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q16">
-        <v>2.352316205286667</v>
+        <v>10.81035269479822</v>
       </c>
       <c r="R16">
-        <v>21.17084584758</v>
+        <v>97.29317425318398</v>
       </c>
       <c r="S16">
-        <v>0.0003337743215001234</v>
+        <v>0.002290631627764269</v>
       </c>
       <c r="T16">
-        <v>0.0003337743215001233</v>
+        <v>0.00229063162776427</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H17">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I17">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J17">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N17">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O17">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P17">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q17">
-        <v>56.32174858793599</v>
+        <v>48.48305720320634</v>
       </c>
       <c r="R17">
-        <v>506.8957372914239</v>
+        <v>436.347514828857</v>
       </c>
       <c r="S17">
-        <v>0.007991592872756637</v>
+        <v>0.01027319157623854</v>
       </c>
       <c r="T17">
-        <v>0.007991592872756637</v>
+        <v>0.01027319157623855</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H18">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I18">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J18">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>49.630572</v>
       </c>
       <c r="O18">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P18">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q18">
-        <v>108.448656227496</v>
+        <v>98.51272048874802</v>
       </c>
       <c r="R18">
-        <v>976.0379060474638</v>
+        <v>886.6144843987321</v>
       </c>
       <c r="S18">
-        <v>0.01538797231791437</v>
+        <v>0.02087409723433074</v>
       </c>
       <c r="T18">
-        <v>0.01538797231791437</v>
+        <v>0.02087409723433074</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H19">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I19">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J19">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N19">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O19">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P19">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q19">
-        <v>232.9642971888439</v>
+        <v>67.80782654160102</v>
       </c>
       <c r="R19">
-        <v>2096.678674699596</v>
+        <v>610.2704388744091</v>
       </c>
       <c r="S19">
-        <v>0.03305571761704694</v>
+        <v>0.0143679634209237</v>
       </c>
       <c r="T19">
-        <v>0.03305571761704694</v>
+        <v>0.0143679634209237</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H20">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I20">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J20">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N20">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O20">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P20">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q20">
-        <v>97.94663387085197</v>
+        <v>60.01981781268679</v>
       </c>
       <c r="R20">
-        <v>881.5197048376677</v>
+        <v>540.1783603141811</v>
       </c>
       <c r="S20">
-        <v>0.01389782172566404</v>
+        <v>0.01271774352381163</v>
       </c>
       <c r="T20">
-        <v>0.01389782172566404</v>
+        <v>0.01271774352381163</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H21">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I21">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J21">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N21">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O21">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P21">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q21">
-        <v>169.939006453502</v>
+        <v>92.69281562776355</v>
       </c>
       <c r="R21">
-        <v>1529.451058081518</v>
+        <v>834.235340649872</v>
       </c>
       <c r="S21">
-        <v>0.02411294725086091</v>
+        <v>0.01964090359842237</v>
       </c>
       <c r="T21">
-        <v>0.02411294725086091</v>
+        <v>0.01964090359842238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H22">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I22">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J22">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N22">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O22">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P22">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q22">
-        <v>3.424446600039111</v>
+        <v>8.439914215130669</v>
       </c>
       <c r="R22">
-        <v>30.820019400352</v>
+        <v>75.95922793617601</v>
       </c>
       <c r="S22">
-        <v>0.0004859008061385043</v>
+        <v>0.001788353718199979</v>
       </c>
       <c r="T22">
-        <v>0.0004859008061385041</v>
+        <v>0.001788353718199979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H23">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I23">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J23">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>49.630572</v>
       </c>
       <c r="O23">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P23">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q23">
-        <v>6.593840592808001</v>
+        <v>17.149061094464</v>
       </c>
       <c r="R23">
-        <v>59.344565335272</v>
+        <v>154.341549850176</v>
       </c>
       <c r="S23">
-        <v>0.0009356117451379173</v>
+        <v>0.003633755793031894</v>
       </c>
       <c r="T23">
-        <v>0.0009356117451379172</v>
+        <v>0.003633755793031895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H24">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I24">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J24">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N24">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O24">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P24">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q24">
-        <v>14.16457790178978</v>
+        <v>11.803963531568</v>
       </c>
       <c r="R24">
-        <v>127.481201116108</v>
+        <v>106.235671784112</v>
       </c>
       <c r="S24">
-        <v>0.00200983709923019</v>
+        <v>0.0025011702172674</v>
       </c>
       <c r="T24">
-        <v>0.00200983709923019</v>
+        <v>0.002501170217267401</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H25">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I25">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J25">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N25">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O25">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P25">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q25">
-        <v>5.955301917173777</v>
+        <v>10.44822960366756</v>
       </c>
       <c r="R25">
-        <v>53.597717254564</v>
+        <v>94.03406643300801</v>
       </c>
       <c r="S25">
-        <v>0.0008450083591082627</v>
+        <v>0.002213900495200316</v>
       </c>
       <c r="T25">
-        <v>0.0008450083591082626</v>
+        <v>0.002213900495200316</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H26">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I26">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J26">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N26">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O26">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P26">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q26">
-        <v>10.33254590729045</v>
+        <v>16.13593402285511</v>
       </c>
       <c r="R26">
-        <v>92.99291316561401</v>
+        <v>145.223406205696</v>
       </c>
       <c r="S26">
-        <v>0.001466103278047376</v>
+        <v>0.003419081861598722</v>
       </c>
       <c r="T26">
-        <v>0.001466103278047375</v>
+        <v>0.003419081861598723</v>
       </c>
     </row>
   </sheetData>
